--- a/企画書、設定案、やることリスト、他/スケジュール.xlsx
+++ b/企画書、設定案、やることリスト、他/スケジュール.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="13860" windowHeight="8550"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>大前</t>
     <rPh sb="0" eb="2">
@@ -48,56 +48,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>連番作成（先に進化図の管理を決めないと）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテムパラメータの構造体実装</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージの作成（3つ）</t>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名声の構造体作成と</t>
-    <rPh sb="0" eb="2">
-      <t>メイセイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コウゾウタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名声作成後セーブデータの読み取り、書き出し処理</t>
-    <rPh sb="0" eb="2">
-      <t>メイセイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サクセイゴ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -115,29 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショップ画面のタブ管理、取り付け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（攻撃30、防御30、移動速度9）個とする</t>
-    <rPh sb="1" eb="3">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ボウギョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（キー設定確定までは仮で）←1/31までに確定できる予定</t>
     <rPh sb="3" eb="5">
       <t>セッテイ</t>
@@ -203,32 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パラメータの計算と</t>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵に与えるダメージや回復量の設定。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>難易度や各種調整デバッグ</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
@@ -242,12 +144,143 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル画面の作成＆</t>
+    <t>チュートリアルステージの取り付け</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※やることリスト参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドベンチャーパートの実装(冒頭部分とチュートリアル)</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ボウトウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※テキスト形式で会話内容作っておきます</t>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドベンチャーパートテキスト形式ファイル作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム連番作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージの作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画マンの経験ができてる、だんだんわかってきたけどあんまりいい企画マンじゃなくてわかりづらいこと多くてごめんなさい</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの作成（3つ以上）</t>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ画面のタブ管理、取り付け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（攻撃30、防御30、移動速度9）個とする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル選択時に説明の表示を行います。</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名声構造体作成後とセーブデータの読み取り、書き出し処理</t>
+    <rPh sb="2" eb="5">
+      <t>コウゾウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアルステージ説明画像作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に与えるダメージや回復量の設定。←ここできるだけ期間欲しい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータの計算と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップ画面での説明＆パラメータ設定</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
+    <rPh sb="8" eb="10">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -290,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +384,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -634,33 +679,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -726,19 +745,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -757,6 +763,19 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -767,20 +786,212 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,13 +1000,76 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,229 +1081,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,302 +1427,356 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="8" width="17.5" customWidth="1"/>
+    <col min="3" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
+      <c r="A5" s="47">
         <v>43129</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="A6" s="47">
         <v>43130</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="71" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="47">
+        <v>43131</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47">
+        <v>43132</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="47">
+        <v>43133</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="47">
+        <v>43134</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="47">
+        <v>43135</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+    </row>
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="47">
+        <v>43136</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="47">
+        <v>43137</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="47">
+        <v>43138</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>43131</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="71" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="47">
+        <v>43139</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+    </row>
+    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="47">
+        <v>43140</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>43132</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>43133</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>43134</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>43135</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>43136</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>43137</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>43138</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>43139</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>43140</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
       <c r="G16" s="64"/>
       <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
+      <c r="A17" s="47">
         <v>43141</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
+      <c r="A18" s="47">
         <v>43142</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
+      <c r="A19" s="47">
         <v>43143</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
+      <c r="A20" s="47">
         <v>43144</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
+      <c r="A21" s="47">
         <v>43145</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96"/>
     </row>
     <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="47">
         <v>43146</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="56">
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="C3:E4"/>
     <mergeCell ref="F3:H4"/>
     <mergeCell ref="C10:E10"/>
@@ -1681,37 +1793,6 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/企画書、設定案、やることリスト、他/スケジュール.xlsx
+++ b/企画書、設定案、やることリスト、他/スケジュール.xlsx
@@ -397,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -568,15 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -646,17 +637,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -689,45 +669,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -775,6 +724,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -786,13 +748,133 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,54 +905,36 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,202 +956,82 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1427,7 +1371,7 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1442,293 +1386,293 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47">
+      <c r="A5" s="17">
         <v>43129</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47">
+      <c r="A6" s="17">
         <v>43130</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47">
+      <c r="A7" s="17">
         <v>43131</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47">
+      <c r="A8" s="17">
         <v>43132</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47">
+      <c r="A9" s="17">
         <v>43133</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="58" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="36" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47">
+      <c r="A10" s="17">
         <v>43134</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="60" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47">
+      <c r="A11" s="17">
         <v>43135</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="53" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47">
+      <c r="A12" s="17">
         <v>43136</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47">
+      <c r="A13" s="17">
         <v>43137</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="19" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47">
+      <c r="A14" s="17">
         <v>43138</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47">
+      <c r="A15" s="17">
         <v>43139</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="90" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47">
+      <c r="A16" s="17">
         <v>43140</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47">
+      <c r="A17" s="17">
         <v>43141</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47">
+      <c r="A18" s="17">
         <v>43142</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="66" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="72" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47">
+      <c r="A19" s="17">
         <v>43143</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="75" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47">
+      <c r="A20" s="17">
         <v>43144</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47">
+      <c r="A21" s="17">
         <v>43145</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47">
+      <c r="A22" s="17">
         <v>43146</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
@@ -1737,30 +1681,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="A5:B5"/>
@@ -1777,22 +1713,30 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
